--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/16/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/16/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.39583</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>3395.83</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.67798</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>3677.98</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154978</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>3.98457</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>3984.57</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185954</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>4.26546</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>4265.46</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.21693</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>4.50917</v>
+        <v>7.56894</v>
       </c>
       <c r="C9" t="n">
-        <v>4509.17</v>
+        <v>7568.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247872</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>4.643520000000001</v>
+        <v>7.688479999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>4643.52</v>
+        <v>7688.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278798</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>4.7299</v>
+        <v>7.82432</v>
       </c>
       <c r="C11" t="n">
-        <v>4729.9</v>
+        <v>7824.32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309723</v>
+        <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>4.7826</v>
+        <v>7.891970000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>4782.6</v>
+        <v>7891.97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340648</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>4.814649999999999</v>
+        <v>7.95208</v>
       </c>
       <c r="C13" t="n">
-        <v>4814.65</v>
+        <v>7952.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371573</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>4.8399</v>
+        <v>8.003159999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>4839.9</v>
+        <v>8003.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402498</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>4.85895</v>
+        <v>8.0527</v>
       </c>
       <c r="C15" t="n">
-        <v>4858.95</v>
+        <v>8052.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433423</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>4.87591</v>
+        <v>8.08498</v>
       </c>
       <c r="C16" t="n">
-        <v>4875.91</v>
+        <v>8084.98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464348</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>4.89173</v>
+        <v>8.114979999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>4891.73</v>
+        <v>8114.98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495273</v>
+        <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>4.90634</v>
+        <v>8.14132</v>
       </c>
       <c r="C18" t="n">
-        <v>4906.34</v>
+        <v>8141.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5261980000000001</v>
+        <v>0.526292</v>
       </c>
       <c r="B19" t="n">
-        <v>4.91858</v>
+        <v>8.164720000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>4918.58</v>
+        <v>8164.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557118</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>4.93097</v>
+        <v>8.18521</v>
       </c>
       <c r="C20" t="n">
-        <v>4930.97</v>
+        <v>8185.21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588043</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>4.94196</v>
+        <v>8.203479999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>4941.96</v>
+        <v>8203.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619085</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>4.95276</v>
+        <v>8.220219999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>4952.76</v>
+        <v>8220.219999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650262</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>4.96253</v>
+        <v>8.23536</v>
       </c>
       <c r="C23" t="n">
-        <v>4962.53</v>
+        <v>8235.360000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681435</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>4.97215</v>
+        <v>8.248959999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>4972.15</v>
+        <v>8248.959999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712607</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>4.981100000000001</v>
+        <v>8.2615</v>
       </c>
       <c r="C25" t="n">
-        <v>4981.1</v>
+        <v>8261.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743785</v>
+        <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>4.98953</v>
+        <v>8.272819999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>4989.53</v>
+        <v>8272.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774957</v>
+        <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>4.997640000000001</v>
+        <v>8.283160000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>4997.64</v>
+        <v>8283.16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806134</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>5.00537</v>
+        <v>8.29266</v>
       </c>
       <c r="C28" t="n">
-        <v>5005.37</v>
+        <v>8292.66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837307</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>5.01269</v>
+        <v>8.301200000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>5012.69</v>
+        <v>8301.200000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868479</v>
+        <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>5.01968</v>
+        <v>8.30893</v>
       </c>
       <c r="C30" t="n">
-        <v>5019.68</v>
+        <v>8308.93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899656</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>5.026380000000001</v>
+        <v>8.315860000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>5026.38</v>
+        <v>8315.860000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930829</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>5.03279</v>
+        <v>8.32216</v>
       </c>
       <c r="C32" t="n">
-        <v>5032.79</v>
+        <v>8322.16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962001</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>5.038939999999999</v>
+        <v>8.32769</v>
       </c>
       <c r="C33" t="n">
-        <v>5038.94</v>
+        <v>8327.690000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993178</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>5.04482</v>
+        <v>8.33253</v>
       </c>
       <c r="C34" t="n">
-        <v>5044.82</v>
+        <v>8332.530000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02448</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>5.05045</v>
+        <v>8.33676</v>
       </c>
       <c r="C35" t="n">
-        <v>5050.45</v>
+        <v>8336.76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05576</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>5.05582</v>
+        <v>8.340370000000002</v>
       </c>
       <c r="C36" t="n">
-        <v>5055.82</v>
+        <v>8340.370000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08673</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>5.06095</v>
+        <v>8.343350000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>5060.95</v>
+        <v>8343.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11769</v>
+        <v>1.11873</v>
       </c>
       <c r="B38" t="n">
-        <v>5.06582</v>
+        <v>8.345750000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>5065.82</v>
+        <v>8345.75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14866</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>5.0705</v>
+        <v>8.34755</v>
       </c>
       <c r="C39" t="n">
-        <v>5070.5</v>
+        <v>8347.549999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17963</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>5.07496</v>
+        <v>8.348750000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>5074.96</v>
+        <v>8348.75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.2106</v>
+        <v>1.21287</v>
       </c>
       <c r="B41" t="n">
-        <v>5.07922</v>
+        <v>8.34943</v>
       </c>
       <c r="C41" t="n">
-        <v>5079.22</v>
+        <v>8349.43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24157</v>
+        <v>1.24425</v>
       </c>
       <c r="B42" t="n">
-        <v>5.0833</v>
+        <v>8.349489999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>5083.3</v>
+        <v>8349.49</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27234</v>
+        <v>1.27563</v>
       </c>
       <c r="B43" t="n">
-        <v>5.08718</v>
+        <v>8.34895</v>
       </c>
       <c r="C43" t="n">
-        <v>5087.18</v>
+        <v>8348.950000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30289</v>
+        <v>1.30701</v>
       </c>
       <c r="B44" t="n">
-        <v>5.090890000000001</v>
+        <v>8.347700000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>5090.89</v>
+        <v>8347.700000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33345</v>
+        <v>1.33839</v>
       </c>
       <c r="B45" t="n">
-        <v>5.094399999999999</v>
+        <v>8.34591</v>
       </c>
       <c r="C45" t="n">
-        <v>5094.4</v>
+        <v>8345.91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.364</v>
+        <v>1.36977</v>
       </c>
       <c r="B46" t="n">
-        <v>5.097729999999999</v>
+        <v>8.343500000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>5097.73</v>
+        <v>8343.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39456</v>
+        <v>1.40115</v>
       </c>
       <c r="B47" t="n">
-        <v>5.100899999999999</v>
+        <v>8.340489999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>5100.9</v>
+        <v>8340.49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42587</v>
+        <v>1.43253</v>
       </c>
       <c r="B48" t="n">
-        <v>5.10399</v>
+        <v>8.336930000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>5103.99</v>
+        <v>8336.93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45744</v>
+        <v>1.46391</v>
       </c>
       <c r="B49" t="n">
-        <v>5.10693</v>
+        <v>8.332780000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>5106.93</v>
+        <v>8332.780000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48898</v>
+        <v>1.49529</v>
       </c>
       <c r="B50" t="n">
-        <v>5.10973</v>
+        <v>8.32803</v>
       </c>
       <c r="C50" t="n">
-        <v>5109.73</v>
+        <v>8328.030000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52013</v>
+        <v>1.52667</v>
       </c>
       <c r="B51" t="n">
-        <v>5.11238</v>
+        <v>8.32273</v>
       </c>
       <c r="C51" t="n">
-        <v>5112.38</v>
+        <v>8322.73</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55127</v>
+        <v>1.55805</v>
       </c>
       <c r="B52" t="n">
-        <v>5.11487</v>
+        <v>8.316780000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>5114.87</v>
+        <v>8316.780000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58242</v>
+        <v>1.58943</v>
       </c>
       <c r="B53" t="n">
-        <v>5.1172</v>
+        <v>8.31025</v>
       </c>
       <c r="C53" t="n">
-        <v>5117.2</v>
+        <v>8310.25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61357</v>
+        <v>1.62041</v>
       </c>
       <c r="B54" t="n">
-        <v>5.11939</v>
+        <v>8.303100000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>5119.39</v>
+        <v>8303.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64471</v>
+        <v>1.65139</v>
       </c>
       <c r="B55" t="n">
-        <v>5.121420000000001</v>
+        <v>8.295339999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>5121.42</v>
+        <v>8295.34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67586</v>
+        <v>1.68235</v>
       </c>
       <c r="B56" t="n">
-        <v>5.123340000000001</v>
+        <v>8.286989999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>5123.34</v>
+        <v>8286.99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70701</v>
+        <v>1.71332</v>
       </c>
       <c r="B57" t="n">
-        <v>5.125109999999999</v>
+        <v>8.277959999999998</v>
       </c>
       <c r="C57" t="n">
-        <v>5125.11</v>
+        <v>8277.959999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73778</v>
+        <v>1.74429</v>
       </c>
       <c r="B58" t="n">
-        <v>5.12677</v>
+        <v>8.26824</v>
       </c>
       <c r="C58" t="n">
-        <v>5126.77</v>
+        <v>8268.24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.7685</v>
+        <v>1.77525</v>
       </c>
       <c r="B59" t="n">
-        <v>5.128310000000001</v>
+        <v>8.257680000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>5128.31</v>
+        <v>8257.68</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79922</v>
+        <v>1.80621</v>
       </c>
       <c r="B60" t="n">
-        <v>5.129729999999999</v>
+        <v>8.24588</v>
       </c>
       <c r="C60" t="n">
-        <v>5129.73</v>
+        <v>8245.879999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82994</v>
+        <v>1.83676</v>
       </c>
       <c r="B61" t="n">
-        <v>5.13104</v>
+        <v>8.23326</v>
       </c>
       <c r="C61" t="n">
-        <v>5131.04</v>
+        <v>8233.26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86066</v>
+        <v>1.86731</v>
       </c>
       <c r="B62" t="n">
-        <v>5.13221</v>
+        <v>8.22002</v>
       </c>
       <c r="C62" t="n">
-        <v>5132.21</v>
+        <v>8220.02</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89138</v>
+        <v>1.89787</v>
       </c>
       <c r="B63" t="n">
-        <v>5.13328</v>
+        <v>8.206049999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>5133.28</v>
+        <v>8206.049999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9221</v>
+        <v>1.92842</v>
       </c>
       <c r="B64" t="n">
-        <v>5.13423</v>
+        <v>8.191370000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>5134.23</v>
+        <v>8191.37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95295</v>
+        <v>1.95898</v>
       </c>
       <c r="B65" t="n">
-        <v>5.13509</v>
+        <v>8.17576</v>
       </c>
       <c r="C65" t="n">
-        <v>5135.09</v>
+        <v>8175.76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98429</v>
+        <v>1.98954</v>
       </c>
       <c r="B66" t="n">
-        <v>5.13582</v>
+        <v>8.1593</v>
       </c>
       <c r="C66" t="n">
-        <v>5135.82</v>
+        <v>8159.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01569</v>
+        <v>2.02009</v>
       </c>
       <c r="B67" t="n">
-        <v>5.136439999999999</v>
+        <v>8.1419</v>
       </c>
       <c r="C67" t="n">
-        <v>5136.44</v>
+        <v>8141.9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04701</v>
+        <v>2.05065</v>
       </c>
       <c r="B68" t="n">
-        <v>5.13696</v>
+        <v>8.12341</v>
       </c>
       <c r="C68" t="n">
-        <v>5136.96</v>
+        <v>8123.41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07791</v>
+        <v>2.0812</v>
       </c>
       <c r="B69" t="n">
-        <v>5.13736</v>
+        <v>8.103670000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>5137.36</v>
+        <v>8103.67</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10881</v>
+        <v>2.11175</v>
       </c>
       <c r="B70" t="n">
-        <v>5.13764</v>
+        <v>8.08244</v>
       </c>
       <c r="C70" t="n">
-        <v>5137.64</v>
+        <v>8082.44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13971</v>
+        <v>2.14231</v>
       </c>
       <c r="B71" t="n">
-        <v>5.13782</v>
+        <v>8.059890000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>5137.82</v>
+        <v>8059.89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.1706</v>
+        <v>2.17286</v>
       </c>
       <c r="B72" t="n">
-        <v>5.13787</v>
+        <v>8.03589</v>
       </c>
       <c r="C72" t="n">
-        <v>5137.87</v>
+        <v>8035.89</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.2015</v>
+        <v>2.20402</v>
       </c>
       <c r="B73" t="n">
-        <v>5.137810000000001</v>
+        <v>8.010020000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>5137.81</v>
+        <v>8010.02</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23239</v>
+        <v>2.23559</v>
       </c>
       <c r="B74" t="n">
-        <v>5.13765</v>
+        <v>7.98248</v>
       </c>
       <c r="C74" t="n">
-        <v>5137.65</v>
+        <v>7982.48</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26329</v>
+        <v>2.26658</v>
       </c>
       <c r="B75" t="n">
-        <v>5.13737</v>
+        <v>7.953550000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>5137.37</v>
+        <v>7953.55</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29419</v>
+        <v>2.2973</v>
       </c>
       <c r="B76" t="n">
-        <v>5.13695</v>
+        <v>7.92319</v>
       </c>
       <c r="C76" t="n">
-        <v>5136.95</v>
+        <v>7923.19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32508</v>
+        <v>2.32803</v>
       </c>
       <c r="B77" t="n">
-        <v>5.136439999999999</v>
+        <v>7.8913</v>
       </c>
       <c r="C77" t="n">
-        <v>5136.44</v>
+        <v>7891.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35598</v>
+        <v>2.35905</v>
       </c>
       <c r="B78" t="n">
-        <v>5.13583</v>
+        <v>7.857390000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>5135.83</v>
+        <v>7857.39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38688</v>
+        <v>2.39005</v>
       </c>
       <c r="B79" t="n">
-        <v>5.13513</v>
+        <v>7.82119</v>
       </c>
       <c r="C79" t="n">
-        <v>5135.13</v>
+        <v>7821.19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41792</v>
+        <v>2.42097</v>
       </c>
       <c r="B80" t="n">
-        <v>5.13429</v>
+        <v>7.78324</v>
       </c>
       <c r="C80" t="n">
-        <v>5134.29</v>
+        <v>7783.24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44901</v>
+        <v>2.45206</v>
       </c>
       <c r="B81" t="n">
-        <v>5.13329</v>
+        <v>7.74212</v>
       </c>
       <c r="C81" t="n">
-        <v>5133.29</v>
+        <v>7742.12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48009</v>
+        <v>2.48283</v>
       </c>
       <c r="B82" t="n">
-        <v>5.132140000000001</v>
+        <v>7.699350000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>5132.14</v>
+        <v>7699.35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51118</v>
+        <v>2.51306</v>
       </c>
       <c r="B83" t="n">
-        <v>5.13087</v>
+        <v>7.654920000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>5130.87</v>
+        <v>7654.92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54226</v>
+        <v>2.54484</v>
       </c>
       <c r="B84" t="n">
-        <v>5.12949</v>
+        <v>7.60533</v>
       </c>
       <c r="C84" t="n">
-        <v>5129.49</v>
+        <v>7605.33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57335</v>
+        <v>2.57618</v>
       </c>
       <c r="B85" t="n">
-        <v>5.12804</v>
+        <v>7.553850000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>5128.04</v>
+        <v>7553.85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60444</v>
+        <v>2.6067</v>
       </c>
       <c r="B86" t="n">
-        <v>5.12647</v>
+        <v>7.50056</v>
       </c>
       <c r="C86" t="n">
-        <v>5126.47</v>
+        <v>7500.56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63552</v>
+        <v>2.63736</v>
       </c>
       <c r="B87" t="n">
-        <v>5.124779999999999</v>
+        <v>7.44413</v>
       </c>
       <c r="C87" t="n">
-        <v>5124.78</v>
+        <v>7444.13</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66661</v>
+        <v>2.66901</v>
       </c>
       <c r="B88" t="n">
-        <v>5.12297</v>
+        <v>7.38287</v>
       </c>
       <c r="C88" t="n">
-        <v>5122.97</v>
+        <v>7382.87</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69769</v>
+        <v>2.69994</v>
       </c>
       <c r="B89" t="n">
-        <v>5.121020000000001</v>
+        <v>7.31984</v>
       </c>
       <c r="C89" t="n">
-        <v>5121.02</v>
+        <v>7319.84</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72878</v>
+        <v>2.72999</v>
       </c>
       <c r="B90" t="n">
-        <v>5.118930000000001</v>
+        <v>7.25511</v>
       </c>
       <c r="C90" t="n">
-        <v>5118.93</v>
+        <v>7255.11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75977</v>
+        <v>2.76171</v>
       </c>
       <c r="B91" t="n">
-        <v>5.1167</v>
+        <v>7.18397</v>
       </c>
       <c r="C91" t="n">
-        <v>5116.7</v>
+        <v>7183.97</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78994</v>
+        <v>2.79313</v>
       </c>
       <c r="B92" t="n">
-        <v>5.114350000000001</v>
+        <v>7.11034</v>
       </c>
       <c r="C92" t="n">
-        <v>5114.35</v>
+        <v>7110.34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82011</v>
+        <v>2.82368</v>
       </c>
       <c r="B93" t="n">
-        <v>5.11187</v>
+        <v>7.03565</v>
       </c>
       <c r="C93" t="n">
-        <v>5111.87</v>
+        <v>7035.65</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85028</v>
+        <v>2.8538</v>
       </c>
       <c r="B94" t="n">
-        <v>5.10926</v>
+        <v>6.960020000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>5109.26</v>
+        <v>6960.02</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88046</v>
+        <v>2.8858</v>
       </c>
       <c r="B95" t="n">
-        <v>5.10655</v>
+        <v>6.87628</v>
       </c>
       <c r="C95" t="n">
-        <v>5106.55</v>
+        <v>6876.28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91063</v>
+        <v>2.91713</v>
       </c>
       <c r="B96" t="n">
-        <v>5.10367</v>
+        <v>6.79182</v>
       </c>
       <c r="C96" t="n">
-        <v>5103.67</v>
+        <v>6791.82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9408</v>
+        <v>2.94785</v>
       </c>
       <c r="B97" t="n">
-        <v>5.10066</v>
+        <v>6.70697</v>
       </c>
       <c r="C97" t="n">
-        <v>5100.66</v>
+        <v>6706.97</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97097</v>
+        <v>2.97752</v>
       </c>
       <c r="B98" t="n">
-        <v>5.09747</v>
+        <v>6.62187</v>
       </c>
       <c r="C98" t="n">
-        <v>5097.47</v>
+        <v>6621.87</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00114</v>
+        <v>3.00943</v>
       </c>
       <c r="B99" t="n">
-        <v>5.09408</v>
+        <v>6.52876</v>
       </c>
       <c r="C99" t="n">
-        <v>5094.08</v>
+        <v>6528.76</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03131</v>
+        <v>3.04072</v>
       </c>
       <c r="B100" t="n">
-        <v>5.09042</v>
+        <v>6.4364</v>
       </c>
       <c r="C100" t="n">
-        <v>5090.42</v>
+        <v>6436.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06148</v>
+        <v>3.07071</v>
       </c>
       <c r="B101" t="n">
-        <v>5.086609999999999</v>
+        <v>6.345020000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>5086.61</v>
+        <v>6345.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.0919</v>
+        <v>3.10096</v>
       </c>
       <c r="B102" t="n">
-        <v>5.08261</v>
+        <v>6.253810000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>5082.61</v>
+        <v>6253.81</v>
       </c>
     </row>
   </sheetData>
